--- a/config_path/time_selecting_path_config.xlsx
+++ b/config_path/time_selecting_path_config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Timeselecting_v2\config_path\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TimeSelecting_v2\config_path\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11BDDE0D-9964-419D-999C-CA8DABBD8D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8318E8D1-5ADA-4CA3-B9FC-C8A0CF7C611F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38040" yWindow="-21825" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -709,8 +709,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -809,7 +809,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B9" t="s">
@@ -820,7 +820,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B10" t="s">
@@ -831,7 +831,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>96</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -842,7 +842,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -853,7 +853,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -864,7 +864,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -875,7 +875,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B15" s="1" t="s">

--- a/config_path/time_selecting_path_config.xlsx
+++ b/config_path/time_selecting_path_config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TimeSelecting_v2\config_path\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8318E8D1-5ADA-4CA3-B9FC-C8A0CF7C611F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91276C39-431C-45D4-9782-8EF8E7189E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38040" yWindow="-21825" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,243 +114,246 @@
     <t>NDAQ.O_data.csv</t>
   </si>
   <si>
+    <t>index_data\ygData.csv</t>
+  </si>
+  <si>
+    <t>raw_LHBProportion</t>
+  </si>
+  <si>
+    <t>mkt_data\LHB_AMT_proportion.csv</t>
+  </si>
+  <si>
+    <t>raw_NLBPDifference</t>
+  </si>
+  <si>
+    <t>raw_LargeOrder</t>
+  </si>
+  <si>
+    <t>mkt_data\LargeOrderInflow.csv</t>
+  </si>
+  <si>
+    <t>raw_CPI</t>
+  </si>
+  <si>
+    <t>macro_data\CPI.csv</t>
+  </si>
+  <si>
+    <t>raw_PPI</t>
+  </si>
+  <si>
+    <t>macro_data\PPI.csv</t>
+  </si>
+  <si>
+    <t>raw_PMI</t>
+  </si>
+  <si>
+    <t>macro_data\PMI.csv</t>
+  </si>
+  <si>
+    <t>raw_StockClose</t>
+  </si>
+  <si>
+    <t>stock_close.csv</t>
+  </si>
+  <si>
+    <t>raw_futureDifference</t>
+  </si>
+  <si>
+    <t>signal_booster_output</t>
+  </si>
+  <si>
+    <t>signal_boost</t>
+  </si>
+  <si>
+    <t>output_folder</t>
+  </si>
+  <si>
+    <t>signal_data</t>
+  </si>
+  <si>
+    <t>Combine_signal</t>
+  </si>
+  <si>
+    <t>Combine_processing</t>
+  </si>
+  <si>
+    <t>output_folder_2</t>
+  </si>
+  <si>
+    <t>grid_search_output</t>
+  </si>
+  <si>
+    <t>data\grid_search</t>
+  </si>
+  <si>
+    <t>project_folder</t>
+  </si>
+  <si>
+    <t>signal_parameters_prod</t>
+  </si>
+  <si>
+    <t>config_project\signal_dictionary.xlsx</t>
+  </si>
+  <si>
+    <t>signal_parameters_history</t>
+  </si>
+  <si>
+    <t>signal_history_config.xlsx</t>
+  </si>
+  <si>
+    <t>backtest_output</t>
+  </si>
+  <si>
+    <t>signal_output</t>
+  </si>
+  <si>
+    <t>signal_dic</t>
+  </si>
+  <si>
+    <t>signal_dictionary.xlsx</t>
+  </si>
+  <si>
+    <t>config_folder</t>
+  </si>
+  <si>
+    <t>signal_combine</t>
+  </si>
+  <si>
+    <t>portfolio_output</t>
+  </si>
+  <si>
+    <t>portfolio_weight</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>RON</t>
+  </si>
+  <si>
+    <t>MPON</t>
+  </si>
+  <si>
+    <t>output_folder_1</t>
+  </si>
+  <si>
+    <t>TimeSelecting</t>
+  </si>
+  <si>
+    <t>config_project</t>
+  </si>
+  <si>
+    <t>Signal</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Signal\signal_data</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Signal\final_signal</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Portfolio_test</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>output_folder</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>raw_signal_output</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>raw_signal_data</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>raw_rrscoreDifference</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>index_data\indexrrScoreDifference.csv</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>raw_vix</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>data_type</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>vix_data\\vix_timeWeight.csv</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>raw_indexFinanceDifference</t>
+  </si>
+  <si>
+    <t>index_data\indexFinanceDifference.csv</t>
+  </si>
+  <si>
+    <t>raw_indexOpen</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>index_data\IndexOpen.csv</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>data_folder</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>onedrive\Data_prepared\data_timeSeries</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>macro_data\ChinaGovernmentBonds.csv</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>macro_data\ChinaDevelopmentBankBonds.csv</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>macro_data\ChinaMediumTermNotes.csv</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>raw_M1M2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>macro_data\M1M2.csv</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>index_return.csv</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>raw_indexAMT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>index_data\IndexLow.csv</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>raw_indexFactor</t>
-  </si>
-  <si>
-    <t>index_data\ygData.csv</t>
-  </si>
-  <si>
-    <t>raw_LHBProportion</t>
-  </si>
-  <si>
-    <t>mkt_data\LHB_AMT_proportion.csv</t>
-  </si>
-  <si>
-    <t>raw_NLBPDifference</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>mkt_data\NetLeverageBuying.csv</t>
-  </si>
-  <si>
-    <t>raw_LargeOrder</t>
-  </si>
-  <si>
-    <t>mkt_data\LargeOrderInflow.csv</t>
-  </si>
-  <si>
-    <t>raw_CPI</t>
-  </si>
-  <si>
-    <t>macro_data\CPI.csv</t>
-  </si>
-  <si>
-    <t>raw_PPI</t>
-  </si>
-  <si>
-    <t>macro_data\PPI.csv</t>
-  </si>
-  <si>
-    <t>raw_PMI</t>
-  </si>
-  <si>
-    <t>macro_data\PMI.csv</t>
-  </si>
-  <si>
-    <t>raw_StockClose</t>
-  </si>
-  <si>
-    <t>stock_close.csv</t>
-  </si>
-  <si>
-    <t>raw_futureDifference</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>index_data\indexFutureDifference.csv</t>
-  </si>
-  <si>
-    <t>signal_booster_output</t>
-  </si>
-  <si>
-    <t>signal_boost</t>
-  </si>
-  <si>
-    <t>output_folder</t>
-  </si>
-  <si>
-    <t>signal_data</t>
-  </si>
-  <si>
-    <t>Combine_signal</t>
-  </si>
-  <si>
-    <t>Combine_processing</t>
-  </si>
-  <si>
-    <t>output_folder_2</t>
-  </si>
-  <si>
-    <t>grid_search_output</t>
-  </si>
-  <si>
-    <t>data\grid_search</t>
-  </si>
-  <si>
-    <t>project_folder</t>
-  </si>
-  <si>
-    <t>signal_parameters_prod</t>
-  </si>
-  <si>
-    <t>config_project\signal_dictionary.xlsx</t>
-  </si>
-  <si>
-    <t>signal_parameters_history</t>
-  </si>
-  <si>
-    <t>signal_history_config.xlsx</t>
-  </si>
-  <si>
-    <t>backtest_output</t>
-  </si>
-  <si>
-    <t>signal_output</t>
-  </si>
-  <si>
-    <t>signal_dic</t>
-  </si>
-  <si>
-    <t>signal_dictionary.xlsx</t>
-  </si>
-  <si>
-    <t>config_folder</t>
-  </si>
-  <si>
-    <t>signal_combine</t>
-  </si>
-  <si>
-    <t>portfolio_output</t>
-  </si>
-  <si>
-    <t>portfolio_weight</t>
-  </si>
-  <si>
-    <t>path</t>
-  </si>
-  <si>
-    <t>RON</t>
-  </si>
-  <si>
-    <t>MPON</t>
-  </si>
-  <si>
-    <t>output_folder_1</t>
-  </si>
-  <si>
-    <t>TimeSelecting</t>
-  </si>
-  <si>
-    <t>config_project</t>
-  </si>
-  <si>
-    <t>Signal</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Signal\signal_data</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Signal\final_signal</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Portfolio_test</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>output_folder</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>raw_signal_output</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>raw_signal_data</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>raw_rrscoreDifference</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>index_data\indexrrScoreDifference.csv</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>raw_vix</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>data_type</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>vix_data\\vix_timeWeight.csv</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>raw_indexFinanceDifference</t>
-  </si>
-  <si>
-    <t>index_data\indexFinanceDifference.csv</t>
-  </si>
-  <si>
-    <t>raw_indexOpen</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>index_data\IndexOpen.csv</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>data_folder</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>onedrive\Data_prepared\data_timeSeries</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>macro_data\ChinaGovernmentBonds.csv</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>macro_data\ChinaDevelopmentBankBonds.csv</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>macro_data\ChinaMediumTermNotes.csv</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>raw_M1M2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>macro_data\M1M2.csv</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>index_return.csv</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>raw_indexAMT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>index_data\IndexLow.csv</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -418,7 +421,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -430,6 +433,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -709,8 +713,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -747,7 +751,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -758,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -769,7 +773,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -777,10 +781,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -798,11 +802,11 @@
       </c>
     </row>
     <row r="8" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -832,7 +836,7 @@
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>16</v>
@@ -868,21 +872,21 @@
         <v>21</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -908,44 +912,44 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="B19" t="s">
         <v>28</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="B20" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -953,10 +957,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -964,10 +968,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -975,21 +979,21 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>84</v>
+      <c r="A25" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>5</v>
@@ -997,21 +1001,21 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="B27" s="4" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>5</v>
@@ -1019,10 +1023,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>5</v>
@@ -1030,10 +1034,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>5</v>
@@ -1041,7 +1045,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>1</v>
@@ -1052,123 +1056,123 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B35" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C35" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B36" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C36" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B37" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C37" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1202,13 +1206,13 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1216,7 +1220,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1227,10 +1231,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1241,10 +1245,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1255,10 +1259,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1269,10 +1273,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1283,10 +1287,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1297,10 +1301,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C8">
         <v>1</v>

--- a/config_path/time_selecting_path_config.xlsx
+++ b/config_path/time_selecting_path_config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TimeSelecting_v2\config_path\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91276C39-431C-45D4-9782-8EF8E7189E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B982C15-CEA9-44E3-94E3-101BE0DC7456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38040" yWindow="-21825" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -713,8 +713,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1000,7 +1000,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -1022,7 +1022,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="7" t="s">
         <v>76</v>
       </c>
       <c r="B28" s="4" t="s">
@@ -1033,7 +1033,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="7" t="s">
         <v>78</v>
       </c>
       <c r="B29" s="4" t="s">
